--- a/examples/neutralization-submission-invalid.xlsx
+++ b/examples/neutralization-submission-invalid.xlsx
@@ -552,7 +552,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B100" type="list">
-      <formula1>=Terminology!A2:A4</formula1>
+      <formula1>=Terminology!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/examples/neutralization-submission-invalid.xlsx
+++ b/examples/neutralization-submission-invalid.xlsx
@@ -440,7 +440,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acme mAb 1</t>
+          <t>COVIC 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Acme mAb 1</t>
+          <t>COVIC 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acme mAb 4</t>
+          <t>COVIC 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,15 +484,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acme mAb 5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>COVIC 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>postive</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acme mAb 6</t>
+          <t>COVIC 6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -504,50 +508,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Acme mAb 7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>postive</t>
-        </is>
-      </c>
+          <t>COVIC 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acme mAb 8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
+          <t>COVIC 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acme mAb 9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
+          <t>COVIC 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acme mAb 10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
+          <t>COVIC 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examples/neutralization-submission-invalid.xlsx
+++ b/examples/neutralization-submission-invalid.xlsx
@@ -351,7 +351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,6 +397,13 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>- Qualitative measure: The qualitative assay result.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>- Titer: The concentration</t>
         </is>
       </c>
     </row>
@@ -412,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -423,6 +430,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15"/>
     <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,6 +444,11 @@
           <t>Qualitative measure</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +459,11 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.52</t>
         </is>
       </c>
     </row>
@@ -456,6 +474,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +491,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +508,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +525,11 @@
           <t>postive</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +542,11 @@
           <t>intermediate</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -512,6 +555,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -520,6 +564,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -528,6 +573,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -536,6 +582,7 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examples/neutralization-submission-invalid.xlsx
+++ b/examples/neutralization-submission-invalid.xlsx
@@ -389,7 +389,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Antibody name: The antibody's CoVIC ID.</t>
+          <t>- Antibody label: The antibody's CoVIC ID.</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Antibody name</t>
+          <t>Antibody label</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
